--- a/草稿/歌曲时间轴.xlsx
+++ b/草稿/歌曲时间轴.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>胡蝶のワルツ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -276,6 +276,10 @@
       </rPr>
       <t>恥ずかしいと隠す</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=1:16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,12 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -421,8 +419,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -436,22 +434,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -759,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,11 +782,11 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="L2" s="20"/>
+      <c r="J2" s="22"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="14" t="s">
         <v>40</v>
       </c>
@@ -807,7 +808,7 @@
       <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="14" t="s">
@@ -853,7 +854,7 @@
       <c r="I5" s="8">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="14" t="s">
@@ -901,7 +902,7 @@
       <c r="I7" s="8">
         <v>5.4166666666666669E-2</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="14" t="s">
@@ -919,7 +920,9 @@
       <c r="E8" s="4">
         <v>0.19444444444444445</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="I8" s="8">
         <v>6.9444444444444434E-2</v>
@@ -945,7 +948,7 @@
       <c r="I9" s="8">
         <v>8.1944444444444445E-2</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="14" t="s">
@@ -964,7 +967,7 @@
       <c r="I10" s="8">
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="14"/>
@@ -989,7 +992,7 @@
       <c r="I11" s="8">
         <v>0.1076388888888889</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="14" t="s">
@@ -1012,7 +1015,7 @@
       <c r="I12" s="8">
         <v>0.12083333333333333</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>14</v>
       </c>
       <c r="L12" s="14"/>
@@ -1037,7 +1040,7 @@
       <c r="I13" s="8">
         <v>0.13263888888888889</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="14" t="s">
@@ -1067,7 +1070,7 @@
       <c r="M14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1083,14 +1086,14 @@
       <c r="I15" s="8">
         <v>0.15902777777777777</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="M15" s="13"/>
-      <c r="N15" s="18"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -1106,14 +1109,14 @@
       <c r="I16" s="8">
         <v>0.17152777777777775</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1135,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="M17" s="13"/>
-      <c r="N17" s="18"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -1154,7 +1157,7 @@
       <c r="M18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1173,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="M19" s="13"/>
-      <c r="N19" s="18"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
@@ -1189,7 +1192,7 @@
       <c r="M20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1203,17 +1206,17 @@
         <v>31</v>
       </c>
       <c r="M21" s="13"/>
-      <c r="N21" s="18"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1221,15 +1224,15 @@
       <c r="L23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="18"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L24" s="15"/>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1237,15 +1240,15 @@
       <c r="L25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="18"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L26" s="15"/>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1253,15 +1256,15 @@
       <c r="L27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L28" s="16"/>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1269,15 +1272,15 @@
       <c r="L29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L30" s="16"/>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="18" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1285,15 +1288,15 @@
       <c r="L31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L32" s="16"/>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1301,15 +1304,15 @@
       <c r="L33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="19"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L34" s="16"/>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1317,60 +1320,60 @@
       <c r="L35" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="19"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="18"/>
     </row>
     <row r="36" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L36" s="16"/>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="20"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L37" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M37" s="17"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L38" s="16"/>
-      <c r="M38" s="17" t="s">
+      <c r="M38" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L39" s="20"/>
-      <c r="M39" s="17"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L41" s="11"/>
-      <c r="M41" s="17"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L42" s="11"/>
-      <c r="M42" s="17" t="s">
+      <c r="M42" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L43" s="11"/>
-      <c r="M43" s="17"/>
+      <c r="M43" s="23"/>
     </row>
     <row r="44" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L44" s="11"/>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L45" s="11"/>
-      <c r="M45" s="20"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="46" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L46" s="11"/>

--- a/草稿/歌曲时间轴.xlsx
+++ b/草稿/歌曲时间轴.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>胡蝶のワルツ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -282,12 +282,180 @@
     <t>=1:16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>奔る光の螺旋</t>
+  </si>
+  <si>
+    <t>吹き上がる音と言葉の即興劇</t>
+  </si>
+  <si>
+    <t>櫻の刻を奏でよ はじまりへ</t>
+  </si>
+  <si>
+    <t>風の筆 射す 春日花抄</t>
+  </si>
+  <si>
+    <t>その力に身をまかせよう</t>
+  </si>
+  <si>
+    <t>恐れなどいらない</t>
+  </si>
+  <si>
+    <t>歌声はあなたに響くだろうか</t>
+  </si>
+  <si>
+    <t>世界の限界をこえる詩を</t>
+  </si>
+  <si>
+    <t>この筆にのせて とどけよ</t>
+  </si>
+  <si>
+    <t>私を越えて</t>
+  </si>
+  <si>
+    <t>櫻咲くこの森で</t>
+  </si>
+  <si>
+    <t>舞い上がる因果交流のひかり</t>
+  </si>
+  <si>
+    <t>きらめくいろにせかいが結ばれる</t>
+  </si>
+  <si>
+    <t>春の雪 そら たかく舞い散る</t>
+  </si>
+  <si>
+    <t>消え去る花かがやく息吹き</t>
+  </si>
+  <si>
+    <t>光り射す</t>
+  </si>
+  <si>
+    <t>あらわれる心象をスケッチしよう</t>
+  </si>
+  <si>
+    <t>せかいの限界をこえる絵画</t>
+  </si>
+  <si>
+    <t>標本の蝶々</t>
+  </si>
+  <si>
+    <t>よみがえりまた飛び立つ</t>
+  </si>
+  <si>
+    <t>すばらしき刻</t>
+  </si>
+  <si>
+    <t>瞬間を閉じこめた永遠こそ</t>
+  </si>
+  <si>
+    <t>わたしたちの意味 そして意義だと</t>
+  </si>
+  <si>
+    <t>君は知るだろう</t>
+  </si>
+  <si>
+    <t>さぁ うけとるがいい</t>
+  </si>
+  <si>
+    <t>永遠の相 この櫻ノ詩の下</t>
+  </si>
+  <si>
+    <t>櫻舞う</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足が立つこの大地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>君が立つ大地だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花よ咲け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咲き乱れ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,8 +508,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +577,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -404,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,9 +624,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -453,6 +649,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -758,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N121"/>
+  <dimension ref="B2:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -782,15 +1009,15 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="14" t="s">
+      <c r="J2" s="21"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -808,14 +1035,14 @@
       <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
@@ -834,11 +1061,11 @@
       <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -854,14 +1081,14 @@
       <c r="I5" s="8">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -880,11 +1107,11 @@
       <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -902,14 +1129,14 @@
       <c r="I7" s="8">
         <v>5.4166666666666669E-2</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -920,7 +1147,7 @@
       <c r="E8" s="4">
         <v>0.19444444444444445</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>71</v>
       </c>
       <c r="G8" s="1"/>
@@ -930,11 +1157,11 @@
       <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -948,14 +1175,14 @@
       <c r="I9" s="8">
         <v>8.1944444444444445E-2</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="1"/>
@@ -970,11 +1197,11 @@
       <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -992,14 +1219,14 @@
       <c r="I11" s="8">
         <v>0.1076388888888889</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -1015,14 +1242,14 @@
       <c r="I12" s="8">
         <v>0.12083333333333333</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1040,14 +1267,14 @@
       <c r="I13" s="8">
         <v>0.13263888888888889</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
@@ -1066,11 +1293,11 @@
       <c r="J14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13" t="s">
+      <c r="L14" s="13"/>
+      <c r="M14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1086,14 +1313,14 @@
       <c r="I15" s="8">
         <v>0.15902777777777777</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="17"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -1109,14 +1336,14 @@
       <c r="I16" s="8">
         <v>0.17152777777777775</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="13" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1134,11 +1361,11 @@
       <c r="I17" s="8">
         <v>0.18680555555555556</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="17"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -1153,11 +1380,11 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="13" t="s">
+      <c r="L18" s="14"/>
+      <c r="M18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1172,11 +1399,11 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="17"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
@@ -1188,11 +1415,11 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="13" t="s">
+      <c r="L20" s="14"/>
+      <c r="M20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1202,401 +1429,424 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="17"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L24" s="15"/>
-      <c r="M24" s="16" t="s">
+      <c r="L24" s="14"/>
+      <c r="M24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L26" s="15"/>
-      <c r="M26" s="16" t="s">
+      <c r="L26" s="14"/>
+      <c r="M26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="18"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L28" s="16"/>
-      <c r="M28" s="16" t="s">
+      <c r="L28" s="15"/>
+      <c r="M28" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="18"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L30" s="16"/>
-      <c r="M30" s="16" t="s">
+      <c r="L30" s="15"/>
+      <c r="M30" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="18"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L32" s="16"/>
-      <c r="M32" s="23" t="s">
+      <c r="L32" s="15"/>
+      <c r="M32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="18"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L34" s="16"/>
-      <c r="M34" s="23" t="s">
+      <c r="L34" s="15"/>
+      <c r="M34" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="18"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L36" s="16"/>
-      <c r="M36" s="23" t="s">
+      <c r="L36" s="15"/>
+      <c r="M36" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="19"/>
+      <c r="N36" s="18"/>
     </row>
     <row r="37" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M37" s="23"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L38" s="16"/>
-      <c r="M38" s="23" t="s">
+      <c r="L38" s="15"/>
+      <c r="M38" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L39" s="19"/>
-      <c r="M39" s="23"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L41" s="11"/>
-      <c r="M41" s="23"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L42" s="11"/>
-      <c r="M42" s="23" t="s">
+      <c r="L42" s="10"/>
+      <c r="M42" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L43" s="11"/>
-      <c r="M43" s="23"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="22"/>
     </row>
     <row r="44" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L44" s="11"/>
-      <c r="M44" s="23" t="s">
+      <c r="L44" s="10"/>
+      <c r="M44" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="12:14" x14ac:dyDescent="0.15">
-      <c r="L45" s="11"/>
-      <c r="M45" s="19"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="18"/>
     </row>
     <row r="46" spans="12:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L46" s="11"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="9"/>
     </row>
     <row r="47" spans="12:14" x14ac:dyDescent="0.15">
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="12:14" x14ac:dyDescent="0.15">
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L64" s="11"/>
-    </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L70" s="11"/>
-    </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L73" s="11"/>
-    </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L74" s="11"/>
-    </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L75" s="11"/>
-    </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L76" s="11"/>
-    </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L77" s="11"/>
-    </row>
-    <row r="78" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L78" s="11"/>
-    </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L79" s="11"/>
-    </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L80" s="11"/>
-    </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L82" s="11"/>
-    </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L83" s="11"/>
-    </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L84" s="10"/>
-    </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L85" s="11"/>
-    </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L86" s="11"/>
-    </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L87" s="11"/>
-    </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L88" s="11"/>
-    </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L89" s="11"/>
-    </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L90" s="11"/>
-    </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L91" s="11"/>
-    </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L92" s="11"/>
-    </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L93" s="11"/>
-    </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L94" s="11"/>
-    </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L95" s="11"/>
-    </row>
-    <row r="96" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L96" s="11"/>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L97" s="11"/>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L98" s="11"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L99" s="11"/>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L100" s="11"/>
-    </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L101" s="11"/>
-    </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L102" s="11"/>
-    </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L103" s="11"/>
-    </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L104" s="11"/>
-    </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L105" s="11"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="12:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L48" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+    </row>
+    <row r="50" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L50" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M50" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+    </row>
+    <row r="52" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L52" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+    </row>
+    <row r="54" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L54" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+    </row>
+    <row r="56" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L56" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+    </row>
+    <row r="58" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L58" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+    </row>
+    <row r="60" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L60" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+    </row>
+    <row r="62" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L62" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="J63" s="30"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="28"/>
+    </row>
+    <row r="64" spans="10:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L64" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+    </row>
+    <row r="66" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L66" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M66" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+    </row>
+    <row r="68" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L68" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+    </row>
+    <row r="70" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L70" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M70" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+    </row>
+    <row r="72" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L72" s="18"/>
+      <c r="M72" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="M73" s="32"/>
+    </row>
+    <row r="74" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M74" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="M75" s="32"/>
+    </row>
+    <row r="76" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M76" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="M77" s="32"/>
+    </row>
+    <row r="78" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M78" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="M79" s="32"/>
+    </row>
+    <row r="80" spans="12:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M80" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M81" s="32"/>
+    </row>
+    <row r="82" spans="13:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M82" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M83" s="35"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L106" s="11"/>
+      <c r="L106" s="10"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L107" s="11"/>
+      <c r="L107" s="10"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L108" s="11"/>
+      <c r="L108" s="10"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L109" s="11"/>
+      <c r="L109" s="10"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L110" s="11"/>
+      <c r="L110" s="10"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L111" s="11"/>
+      <c r="L111" s="10"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L112" s="11"/>
+      <c r="L112" s="10"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L113" s="11"/>
+      <c r="L113" s="10"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L114" s="11"/>
+      <c r="L114" s="10"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L115" s="11"/>
+      <c r="L115" s="10"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L116" s="11"/>
+      <c r="L116" s="10"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L117" s="11"/>
+      <c r="L117" s="10"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L118" s="11"/>
-    </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L121" s="12"/>
+      <c r="L118" s="10"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L119" s="10"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L122" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/草稿/歌曲时间轴.xlsx
+++ b/草稿/歌曲时间轴.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>胡蝶のワルツ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -448,6 +448,14 @@
       </rPr>
       <t>咲き乱れ</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=1:18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -987,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1427,8 +1435,12 @@
       <c r="E21" s="2">
         <v>0.14027777777777778</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L21" s="14" t="s">
         <v>31</v>
       </c>
